--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H2">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N2">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O2">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P2">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q2">
-        <v>242.8853458810552</v>
+        <v>977.8719703659501</v>
       </c>
       <c r="R2">
-        <v>2185.968112929496</v>
+        <v>8800.847733293551</v>
       </c>
       <c r="S2">
-        <v>0.001190163385492981</v>
+        <v>0.00417819505745686</v>
       </c>
       <c r="T2">
-        <v>0.001190163385492981</v>
+        <v>0.004178195057456859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H3">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
         <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P3">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q3">
-        <v>362.6641955909623</v>
+        <v>559.7649078745288</v>
       </c>
       <c r="R3">
-        <v>3263.97776031866</v>
+        <v>5037.88417087076</v>
       </c>
       <c r="S3">
-        <v>0.001777092171847223</v>
+        <v>0.002391731271879995</v>
       </c>
       <c r="T3">
-        <v>0.001777092171847223</v>
+        <v>0.002391731271879994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H4">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N4">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P4">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q4">
-        <v>1397.575448090243</v>
+        <v>2750.235584548765</v>
       </c>
       <c r="R4">
-        <v>12578.17903281218</v>
+        <v>24752.12026093889</v>
       </c>
       <c r="S4">
-        <v>0.006848264644156503</v>
+        <v>0.01175104827056586</v>
       </c>
       <c r="T4">
-        <v>0.006848264644156502</v>
+        <v>0.01175104827056586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H5">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I5">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J5">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N5">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P5">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q5">
-        <v>204.6970898743112</v>
+        <v>123.3445668690227</v>
       </c>
       <c r="R5">
-        <v>1842.273808868801</v>
+        <v>1110.101101821204</v>
       </c>
       <c r="S5">
-        <v>0.001003036970392925</v>
+        <v>0.0005270195641904376</v>
       </c>
       <c r="T5">
-        <v>0.001003036970392925</v>
+        <v>0.0005270195641904376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H6">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I6">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J6">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N6">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O6">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P6">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q6">
-        <v>2633.733619667376</v>
+        <v>4079.310043810543</v>
       </c>
       <c r="R6">
-        <v>23703.60257700639</v>
+        <v>36713.79039429489</v>
       </c>
       <c r="S6">
-        <v>0.01290556789212413</v>
+        <v>0.01742984110333471</v>
       </c>
       <c r="T6">
-        <v>0.01290556789212412</v>
+        <v>0.0174298411033347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H7">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I7">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J7">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N7">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P7">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q7">
-        <v>1008.791762764785</v>
+        <v>2442.61368878743</v>
       </c>
       <c r="R7">
-        <v>9079.125864883068</v>
+        <v>21983.52319908686</v>
       </c>
       <c r="S7">
-        <v>0.0049431842636465</v>
+        <v>0.0104366591446003</v>
       </c>
       <c r="T7">
-        <v>0.004943184263646499</v>
+        <v>0.0104366591446003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I8">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J8">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N8">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O8">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P8">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q8">
-        <v>7238.808433957379</v>
+        <v>18881.94729946209</v>
       </c>
       <c r="R8">
-        <v>65149.27590561641</v>
+        <v>169937.5256951588</v>
       </c>
       <c r="S8">
-        <v>0.03547091209410773</v>
+        <v>0.08067769735975699</v>
       </c>
       <c r="T8">
-        <v>0.03547091209410772</v>
+        <v>0.08067769735975698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I9">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J9">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
         <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P9">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q9">
-        <v>10808.62506634656</v>
+        <v>10808.62506634655</v>
       </c>
       <c r="R9">
-        <v>97277.625597119</v>
+        <v>97277.62559711898</v>
       </c>
       <c r="S9">
-        <v>0.05296338383373296</v>
+        <v>0.04618247091509639</v>
       </c>
       <c r="T9">
-        <v>0.05296338383373295</v>
+        <v>0.04618247091509638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I10">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J10">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N10">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P10">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q10">
-        <v>41652.49617686593</v>
+        <v>53104.9103995908</v>
       </c>
       <c r="R10">
-        <v>374872.4655917935</v>
+        <v>477944.1935963173</v>
       </c>
       <c r="S10">
-        <v>0.2041015512247867</v>
+        <v>0.2269036038278347</v>
       </c>
       <c r="T10">
-        <v>0.2041015512247867</v>
+        <v>0.2269036038278347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I11">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J11">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N11">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P11">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q11">
-        <v>6100.668672346905</v>
+        <v>2381.687666560566</v>
       </c>
       <c r="R11">
-        <v>54906.01805112215</v>
+        <v>21435.1889990451</v>
       </c>
       <c r="S11">
-        <v>0.02989390922088436</v>
+        <v>0.01017633794442977</v>
       </c>
       <c r="T11">
-        <v>0.02989390922088436</v>
+        <v>0.01017633794442977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I12">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J12">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N12">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O12">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P12">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q12">
-        <v>78494.20914912577</v>
+        <v>78768.30464480107</v>
       </c>
       <c r="R12">
-        <v>706447.882342132</v>
+        <v>708914.7418032098</v>
       </c>
       <c r="S12">
-        <v>0.3846297658001458</v>
+        <v>0.3365566772795431</v>
       </c>
       <c r="T12">
-        <v>0.3846297658001458</v>
+        <v>0.3365566772795431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I13">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J13">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N13">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P13">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q13">
-        <v>30065.421583666</v>
+        <v>47164.97081654657</v>
       </c>
       <c r="R13">
-        <v>270588.7942529941</v>
+        <v>424484.7373489191</v>
       </c>
       <c r="S13">
-        <v>0.1473236839731495</v>
+        <v>0.2015237719484323</v>
       </c>
       <c r="T13">
-        <v>0.1473236839731495</v>
+        <v>0.2015237719484323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H14">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I14">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J14">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N14">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O14">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P14">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q14">
-        <v>8.74033811210578</v>
+        <v>2.130420127516444</v>
       </c>
       <c r="R14">
-        <v>78.66304300895202</v>
+        <v>19.173781147648</v>
       </c>
       <c r="S14">
-        <v>4.282856324708607E-05</v>
+        <v>9.102736469442592E-06</v>
       </c>
       <c r="T14">
-        <v>4.282856324708606E-05</v>
+        <v>9.102736469442592E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H15">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I15">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J15">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
         <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P15">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q15">
-        <v>13.05063374293556</v>
+        <v>1.219520001137778</v>
       </c>
       <c r="R15">
-        <v>117.45570368642</v>
+        <v>10.97568001024</v>
       </c>
       <c r="S15">
-        <v>6.39494588773074E-05</v>
+        <v>5.210694851307366E-06</v>
       </c>
       <c r="T15">
-        <v>6.394945887730738E-05</v>
+        <v>5.210694851307366E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H16">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I16">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J16">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N16">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P16">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q16">
-        <v>50.2923793495079</v>
+        <v>5.991742704867555</v>
       </c>
       <c r="R16">
-        <v>452.6314141455711</v>
+        <v>53.925684343808</v>
       </c>
       <c r="S16">
-        <v>0.0002464378748498896</v>
+        <v>2.560117327594742E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002464378748498895</v>
+        <v>2.560117327594742E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H17">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I17">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J17">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N17">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P17">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q17">
-        <v>7.366116591248557</v>
+        <v>0.2687220370773333</v>
       </c>
       <c r="R17">
-        <v>66.295049321237</v>
+        <v>2.418498333696</v>
       </c>
       <c r="S17">
-        <v>3.609473526850682E-05</v>
+        <v>1.148180049302442E-06</v>
       </c>
       <c r="T17">
-        <v>3.609473526850682E-05</v>
+        <v>1.148180049302442E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H18">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I18">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J18">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N18">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O18">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P18">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q18">
-        <v>94.77608560372434</v>
+        <v>8.887302721706666</v>
       </c>
       <c r="R18">
-        <v>852.9847704335191</v>
+        <v>79.98572449536</v>
       </c>
       <c r="S18">
-        <v>0.000464412649090574</v>
+        <v>3.797315541426288E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004644126490905738</v>
+        <v>3.797315541426288E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H19">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I19">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J19">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N19">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P19">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q19">
-        <v>36.30182405318656</v>
+        <v>5.321548754887111</v>
       </c>
       <c r="R19">
-        <v>326.716416478679</v>
+        <v>47.89393879398401</v>
       </c>
       <c r="S19">
-        <v>0.0001778827028777162</v>
+        <v>2.27376071505191E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001778827028777161</v>
+        <v>2.27376071505191E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H20">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I20">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J20">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N20">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O20">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P20">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q20">
-        <v>934.0440912847166</v>
+        <v>1047.007414104277</v>
       </c>
       <c r="R20">
-        <v>8406.39682156245</v>
+        <v>9423.066726938496</v>
       </c>
       <c r="S20">
-        <v>0.004576912920994145</v>
+        <v>0.004473593001233144</v>
       </c>
       <c r="T20">
-        <v>0.004576912920994144</v>
+        <v>0.004473593001233143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H21">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I21">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J21">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
         <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P21">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q21">
-        <v>1394.667709505009</v>
+        <v>599.3402270040534</v>
       </c>
       <c r="R21">
-        <v>12552.00938554508</v>
+        <v>5394.06204303648</v>
       </c>
       <c r="S21">
-        <v>0.00683401642351488</v>
+        <v>0.002560826417047492</v>
       </c>
       <c r="T21">
-        <v>0.006834016423514879</v>
+        <v>0.002560826417047492</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H22">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I22">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J22">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N22">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P22">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q22">
-        <v>5374.540339920529</v>
+        <v>2944.676946286091</v>
       </c>
       <c r="R22">
-        <v>48370.86305928476</v>
+        <v>26502.09251657482</v>
       </c>
       <c r="S22">
-        <v>0.02633580508212678</v>
+        <v>0.01258184612672288</v>
       </c>
       <c r="T22">
-        <v>0.02633580508212678</v>
+        <v>0.01258184612672288</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H23">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I23">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J23">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N23">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P23">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q23">
-        <v>787.1866728176709</v>
+        <v>132.065014557088</v>
       </c>
       <c r="R23">
-        <v>7084.680055359038</v>
+        <v>1188.585131013792</v>
       </c>
       <c r="S23">
-        <v>0.003857296339295992</v>
+        <v>0.0005642797910230468</v>
       </c>
       <c r="T23">
-        <v>0.003857296339295992</v>
+        <v>0.0005642797910230468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H24">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I24">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J24">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N24">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O24">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P24">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q24">
-        <v>10128.33160660477</v>
+        <v>4367.71682769608</v>
       </c>
       <c r="R24">
-        <v>91154.98445944292</v>
+        <v>39309.45144926472</v>
       </c>
       <c r="S24">
-        <v>0.04962987532486011</v>
+        <v>0.01866212900551951</v>
       </c>
       <c r="T24">
-        <v>0.04962987532486011</v>
+        <v>0.01866212900551951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H25">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I25">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J25">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N25">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P25">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q25">
-        <v>3879.427068476083</v>
+        <v>2615.306215389286</v>
       </c>
       <c r="R25">
-        <v>34914.84361628475</v>
+        <v>23537.75593850357</v>
       </c>
       <c r="S25">
-        <v>0.01900959498747075</v>
+        <v>0.01117452983010281</v>
       </c>
       <c r="T25">
-        <v>0.01900959498747075</v>
+        <v>0.0111745298301028</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H26">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I26">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J26">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N26">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O26">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P26">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q26">
-        <v>7.695568138496891</v>
+        <v>16.13914811576622</v>
       </c>
       <c r="R26">
-        <v>69.26011324647202</v>
+        <v>145.252333041896</v>
       </c>
       <c r="S26">
-        <v>3.770908201884967E-05</v>
+        <v>6.895842291463091E-05</v>
       </c>
       <c r="T26">
-        <v>3.770908201884966E-05</v>
+        <v>6.895842291463089E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H27">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I27">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J27">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N27">
         <v>21.28786</v>
       </c>
       <c r="O27">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P27">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q27">
-        <v>11.49063570895778</v>
+        <v>9.23855988510889</v>
       </c>
       <c r="R27">
-        <v>103.41572138062</v>
+        <v>83.14703896597999</v>
       </c>
       <c r="S27">
-        <v>5.63053067167624E-05</v>
+        <v>3.947398679965809E-05</v>
       </c>
       <c r="T27">
-        <v>5.630530671676238E-05</v>
+        <v>3.947398679965809E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H28">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I28">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J28">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N28">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P28">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q28">
-        <v>44.28071627975345</v>
+        <v>45.39086996805177</v>
       </c>
       <c r="R28">
-        <v>398.526446517781</v>
+        <v>408.517829712466</v>
       </c>
       <c r="S28">
-        <v>0.0002169801023128592</v>
+        <v>0.0001939434959805702</v>
       </c>
       <c r="T28">
-        <v>0.0002169801023128591</v>
+        <v>0.0001939434959805702</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H29">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I29">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J29">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N29">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P29">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q29">
-        <v>6.485613189900779</v>
+        <v>2.035722767704667</v>
       </c>
       <c r="R29">
-        <v>58.370518709107</v>
+        <v>18.321504909342</v>
       </c>
       <c r="S29">
-        <v>3.178017728113713E-05</v>
+        <v>8.698119042304648E-06</v>
       </c>
       <c r="T29">
-        <v>3.178017728113713E-05</v>
+        <v>8.698119042304646E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H30">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I30">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J30">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N30">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O30">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P30">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q30">
-        <v>83.44709498746768</v>
+        <v>67.32638934578834</v>
       </c>
       <c r="R30">
-        <v>751.023854887209</v>
+        <v>605.937504112095</v>
       </c>
       <c r="S30">
-        <v>0.0004088994200929494</v>
+        <v>0.0002876683203177577</v>
       </c>
       <c r="T30">
-        <v>0.0004088994200929494</v>
+        <v>0.0002876683203177576</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H31">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I31">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J31">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N31">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O31">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P31">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q31">
-        <v>31.96251185821878</v>
+        <v>40.31376837418256</v>
       </c>
       <c r="R31">
-        <v>287.662606723969</v>
+        <v>362.823915367643</v>
       </c>
       <c r="S31">
-        <v>0.0001566196230737869</v>
+        <v>0.000172250348586467</v>
       </c>
       <c r="T31">
-        <v>0.0001566196230737869</v>
+        <v>0.0001722503485864669</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H32">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I32">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J32">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.752338666666668</v>
+        <v>12.39615733333333</v>
       </c>
       <c r="N32">
-        <v>14.257016</v>
+        <v>37.188472</v>
       </c>
       <c r="O32">
-        <v>0.04151639666945049</v>
+        <v>0.08944108482914562</v>
       </c>
       <c r="P32">
-        <v>0.04151639666945049</v>
+        <v>0.0894410848291456</v>
       </c>
       <c r="Q32">
-        <v>40.38090520687378</v>
+        <v>7.849350124777778</v>
       </c>
       <c r="R32">
-        <v>363.428146861864</v>
+        <v>70.644151123</v>
       </c>
       <c r="S32">
-        <v>0.0001978706235896988</v>
+        <v>3.353825131455763E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001978706235896987</v>
+        <v>3.353825131455763E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H33">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I33">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J33">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.095953333333334</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N33">
         <v>21.28786</v>
       </c>
       <c r="O33">
-        <v>0.06199019766855338</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="P33">
-        <v>0.06199019766855337</v>
+        <v>0.05119891164366677</v>
       </c>
       <c r="Q33">
-        <v>60.29473886521556</v>
+        <v>4.493216783611111</v>
       </c>
       <c r="R33">
-        <v>542.6526497869401</v>
+        <v>40.4389510525</v>
       </c>
       <c r="S33">
-        <v>0.0002954504738642507</v>
+        <v>1.919835799193683E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002954504738642506</v>
+        <v>1.919835799193682E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H34">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I34">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J34">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>27.34521433333333</v>
+        <v>34.86382066666666</v>
       </c>
       <c r="N34">
-        <v>82.03564300000001</v>
+        <v>104.591462</v>
       </c>
       <c r="O34">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="P34">
-        <v>0.238887597223811</v>
+        <v>0.2515503682201936</v>
       </c>
       <c r="Q34">
-        <v>232.3539177881219</v>
+        <v>22.07606177797222</v>
       </c>
       <c r="R34">
-        <v>2091.185260093097</v>
+        <v>198.68455600175</v>
       </c>
       <c r="S34">
-        <v>0.001138558295578255</v>
+        <v>9.432532581368239E-05</v>
       </c>
       <c r="T34">
-        <v>0.001138558295578254</v>
+        <v>9.432532581368239E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H35">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I35">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J35">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.005140333333333</v>
+        <v>1.563598</v>
       </c>
       <c r="N35">
-        <v>12.015421</v>
+        <v>4.690794</v>
       </c>
       <c r="O35">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="P35">
-        <v>0.03498887736300817</v>
+        <v>0.01128171396958841</v>
       </c>
       <c r="Q35">
-        <v>34.03191638570656</v>
+        <v>0.9900832835833334</v>
       </c>
       <c r="R35">
-        <v>306.287247471359</v>
+        <v>8.910749552250001</v>
       </c>
       <c r="S35">
-        <v>0.0001667599198852524</v>
+        <v>4.230370853548892E-06</v>
       </c>
       <c r="T35">
-        <v>0.0001667599198852524</v>
+        <v>4.230370853548892E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H36">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I36">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J36">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>51.532109</v>
+        <v>51.712055</v>
       </c>
       <c r="N36">
-        <v>154.596327</v>
+        <v>155.136165</v>
       </c>
       <c r="O36">
-        <v>0.4501841363839444</v>
+        <v>0.3731141976963542</v>
       </c>
       <c r="P36">
-        <v>0.4501841363839443</v>
+        <v>0.3731141976963541</v>
       </c>
       <c r="Q36">
-        <v>437.8714049221703</v>
+        <v>32.74450415979167</v>
       </c>
       <c r="R36">
-        <v>3940.842644299533</v>
+        <v>294.700537438125</v>
       </c>
       <c r="S36">
-        <v>0.002145615297630793</v>
+        <v>0.000139908832224854</v>
       </c>
       <c r="T36">
-        <v>0.002145615297630792</v>
+        <v>0.000139908832224854</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H37">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I37">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J37">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.73820233333333</v>
+        <v>30.96420033333333</v>
       </c>
       <c r="N37">
-        <v>59.214607</v>
+        <v>92.892601</v>
       </c>
       <c r="O37">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="P37">
-        <v>0.1724327946912327</v>
+        <v>0.2234137236410514</v>
       </c>
       <c r="Q37">
-        <v>167.7166829390726</v>
+        <v>19.60678968606945</v>
       </c>
       <c r="R37">
-        <v>1509.450146451653</v>
+        <v>176.461107174625</v>
       </c>
       <c r="S37">
-        <v>0.0008218291410144269</v>
+        <v>8.377476217901418E-05</v>
       </c>
       <c r="T37">
-        <v>0.0008218291410144266</v>
+        <v>8.377476217901417E-05</v>
       </c>
     </row>
   </sheetData>
